--- a/Code/Results/Cases/Case_3_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013467923752984</v>
+        <v>1.03830827859863</v>
       </c>
       <c r="D2">
-        <v>1.029733167850359</v>
+        <v>1.041893320539708</v>
       </c>
       <c r="E2">
-        <v>1.023830655118867</v>
+        <v>1.046622765366318</v>
       </c>
       <c r="F2">
-        <v>1.025338248282313</v>
+        <v>1.056740132583072</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051179017829788</v>
+        <v>1.040684779555896</v>
       </c>
       <c r="J2">
-        <v>1.035253140356552</v>
+        <v>1.043406421329438</v>
       </c>
       <c r="K2">
-        <v>1.040793248925239</v>
+        <v>1.044671547752643</v>
       </c>
       <c r="L2">
-        <v>1.034967681707947</v>
+        <v>1.04938768418819</v>
       </c>
       <c r="M2">
-        <v>1.036455516254434</v>
+        <v>1.059477015119916</v>
       </c>
       <c r="N2">
-        <v>1.036723318561066</v>
+        <v>1.044888178128115</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017877198024783</v>
+        <v>1.039225788613012</v>
       </c>
       <c r="D3">
-        <v>1.033061829889981</v>
+        <v>1.04259793952127</v>
       </c>
       <c r="E3">
-        <v>1.027818215734994</v>
+        <v>1.047511494830233</v>
       </c>
       <c r="F3">
-        <v>1.030318933012063</v>
+        <v>1.057878063177577</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052711934829075</v>
+        <v>1.040935700576638</v>
       </c>
       <c r="J3">
-        <v>1.037892098853248</v>
+        <v>1.043968830998331</v>
       </c>
       <c r="K3">
-        <v>1.043288457886794</v>
+        <v>1.045187165651309</v>
       </c>
       <c r="L3">
-        <v>1.038107112308788</v>
+        <v>1.050087893307484</v>
       </c>
       <c r="M3">
-        <v>1.040578035281158</v>
+        <v>1.060427819577611</v>
       </c>
       <c r="N3">
-        <v>1.039366024681507</v>
+        <v>1.045451386483247</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020671098521705</v>
+        <v>1.039819702537381</v>
       </c>
       <c r="D4">
-        <v>1.035172540810053</v>
+        <v>1.043053930912896</v>
       </c>
       <c r="E4">
-        <v>1.030350390771433</v>
+        <v>1.048087199874871</v>
       </c>
       <c r="F4">
-        <v>1.033482976370894</v>
+        <v>1.058615534116578</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053672243462073</v>
+        <v>1.041096773343455</v>
       </c>
       <c r="J4">
-        <v>1.039560418947514</v>
+        <v>1.044332338092738</v>
       </c>
       <c r="K4">
-        <v>1.044864217321577</v>
+        <v>1.045520186858627</v>
       </c>
       <c r="L4">
-        <v>1.040095809260271</v>
+        <v>1.050540976741385</v>
       </c>
       <c r="M4">
-        <v>1.043193412553541</v>
+        <v>1.061043620399547</v>
       </c>
       <c r="N4">
-        <v>1.041036713981666</v>
+        <v>1.045815409799423</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021831975953483</v>
+        <v>1.040069436627061</v>
       </c>
       <c r="D5">
-        <v>1.03604987103425</v>
+        <v>1.043245641828417</v>
       </c>
       <c r="E5">
-        <v>1.031403814690556</v>
+        <v>1.048329377910945</v>
       </c>
       <c r="F5">
-        <v>1.03479959651948</v>
+        <v>1.058925842360395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054068575626416</v>
+        <v>1.041164178995864</v>
       </c>
       <c r="J5">
-        <v>1.040252663994803</v>
+        <v>1.044485057633046</v>
       </c>
       <c r="K5">
-        <v>1.045517640784072</v>
+        <v>1.045660040154958</v>
       </c>
       <c r="L5">
-        <v>1.040921959738605</v>
+        <v>1.050731452525985</v>
       </c>
       <c r="M5">
-        <v>1.0442808679322</v>
+        <v>1.061302637986782</v>
       </c>
       <c r="N5">
-        <v>1.041729942096324</v>
+        <v>1.045968346218996</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02202610415424</v>
+        <v>1.040111371143819</v>
       </c>
       <c r="D6">
-        <v>1.036196600479566</v>
+        <v>1.043277831610696</v>
       </c>
       <c r="E6">
-        <v>1.031580049393895</v>
+        <v>1.04837004953118</v>
       </c>
       <c r="F6">
-        <v>1.035019883590797</v>
+        <v>1.058977960611444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054134693783035</v>
+        <v>1.041175478546308</v>
       </c>
       <c r="J6">
-        <v>1.040368368335799</v>
+        <v>1.044510694096741</v>
       </c>
       <c r="K6">
-        <v>1.045626831635141</v>
+        <v>1.045683513387067</v>
       </c>
       <c r="L6">
-        <v>1.041060102941515</v>
+        <v>1.050763434196194</v>
       </c>
       <c r="M6">
-        <v>1.044462762290393</v>
+        <v>1.061346136069233</v>
       </c>
       <c r="N6">
-        <v>1.041845810750756</v>
+        <v>1.04599401908941</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020686663334063</v>
+        <v>1.03982303929059</v>
       </c>
       <c r="D7">
-        <v>1.035184302670553</v>
+        <v>1.043056492517389</v>
       </c>
       <c r="E7">
-        <v>1.030364509783585</v>
+        <v>1.048090435275095</v>
       </c>
       <c r="F7">
-        <v>1.033500621646388</v>
+        <v>1.058619679389074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053677568042417</v>
+        <v>1.041097675237234</v>
       </c>
       <c r="J7">
-        <v>1.039569704217493</v>
+        <v>1.044334379128082</v>
       </c>
       <c r="K7">
-        <v>1.044872983521493</v>
+        <v>1.04552205617105</v>
       </c>
       <c r="L7">
-        <v>1.040106886788314</v>
+        <v>1.050543521891077</v>
       </c>
       <c r="M7">
-        <v>1.043207989963677</v>
+        <v>1.061047080876021</v>
       </c>
       <c r="N7">
-        <v>1.041046012437794</v>
+        <v>1.045817453733271</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014970620150877</v>
+        <v>1.038618308594031</v>
       </c>
       <c r="D8">
-        <v>1.030867237590948</v>
+        <v>1.042131437536494</v>
       </c>
       <c r="E8">
-        <v>1.025188464242752</v>
+        <v>1.046922983005476</v>
       </c>
       <c r="F8">
-        <v>1.027033995908159</v>
+        <v>1.057124462210958</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051703727693411</v>
+        <v>1.040769846254991</v>
       </c>
       <c r="J8">
-        <v>1.0361532931474</v>
+        <v>1.043596574638731</v>
       </c>
       <c r="K8">
-        <v>1.041644715576444</v>
+        <v>1.044845930692502</v>
       </c>
       <c r="L8">
-        <v>1.03603771775219</v>
+        <v>1.04962432238232</v>
       </c>
       <c r="M8">
-        <v>1.037859814572184</v>
+        <v>1.059798226127876</v>
       </c>
       <c r="N8">
-        <v>1.037624749672114</v>
+        <v>1.045078601476918</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004421388048874</v>
+        <v>1.036497169163338</v>
       </c>
       <c r="D9">
-        <v>1.02291433678666</v>
+        <v>1.040501853621195</v>
       </c>
       <c r="E9">
-        <v>1.015680683867357</v>
+        <v>1.044870711566019</v>
       </c>
       <c r="F9">
-        <v>1.015163409961601</v>
+        <v>1.054498567896851</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047974971704805</v>
+        <v>1.040182313909408</v>
       </c>
       <c r="J9">
-        <v>1.029818976011769</v>
+        <v>1.042293366854962</v>
       </c>
       <c r="K9">
-        <v>1.035646271114119</v>
+        <v>1.043649815371922</v>
       </c>
       <c r="L9">
-        <v>1.028524374557722</v>
+        <v>1.048004620912013</v>
       </c>
       <c r="M9">
-        <v>1.028015170287101</v>
+        <v>1.05760195874566</v>
       </c>
       <c r="N9">
-        <v>1.031281437079593</v>
+        <v>1.043773542988616</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9970329897526717</v>
+        <v>1.035084301804099</v>
       </c>
       <c r="D10">
-        <v>1.017357451829576</v>
+        <v>1.039415859531166</v>
       </c>
       <c r="E10">
-        <v>1.009053797007598</v>
+        <v>1.043505903708899</v>
       </c>
       <c r="F10">
-        <v>1.006892285361805</v>
+        <v>1.052753977631966</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045307751126593</v>
+        <v>1.03978403011017</v>
       </c>
       <c r="J10">
-        <v>1.025364821915395</v>
+        <v>1.041422521997335</v>
       </c>
       <c r="K10">
-        <v>1.031420228127483</v>
+        <v>1.042849297872576</v>
       </c>
       <c r="L10">
-        <v>1.023261484107796</v>
+        <v>1.046924897197846</v>
       </c>
       <c r="M10">
-        <v>1.021138202633008</v>
+        <v>1.056140765137475</v>
       </c>
       <c r="N10">
-        <v>1.026820957573504</v>
+        <v>1.042901461431404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9937409049076004</v>
+        <v>1.034472815147954</v>
       </c>
       <c r="D11">
-        <v>1.014885338630612</v>
+        <v>1.038945720665022</v>
       </c>
       <c r="E11">
-        <v>1.006109055266612</v>
+        <v>1.042915739017801</v>
       </c>
       <c r="F11">
-        <v>1.003216893400165</v>
+        <v>1.051999983709918</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044106663219101</v>
+        <v>1.03961001074408</v>
       </c>
       <c r="J11">
-        <v>1.023376407824957</v>
+        <v>1.041044962144885</v>
       </c>
       <c r="K11">
-        <v>1.029531894859156</v>
+        <v>1.042501938185608</v>
       </c>
       <c r="L11">
-        <v>1.020916676066775</v>
+        <v>1.046457392703919</v>
       </c>
       <c r="M11">
-        <v>1.018078397744251</v>
+        <v>1.055508768779807</v>
       </c>
       <c r="N11">
-        <v>1.024829719706983</v>
+        <v>1.042523365400657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9925033440611669</v>
+        <v>1.034245726707986</v>
       </c>
       <c r="D12">
-        <v>1.013956677029926</v>
+        <v>1.038771106903581</v>
       </c>
       <c r="E12">
-        <v>1.005003312166037</v>
+        <v>1.042696647616227</v>
       </c>
       <c r="F12">
-        <v>1.00183673372496</v>
+        <v>1.051720131520344</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043653301401258</v>
+        <v>1.039545138317939</v>
       </c>
       <c r="J12">
-        <v>1.022628399773331</v>
+        <v>1.04090464845757</v>
       </c>
       <c r="K12">
-        <v>1.028821286427351</v>
+        <v>1.042372804389153</v>
       </c>
       <c r="L12">
-        <v>1.020035280296131</v>
+        <v>1.046283744888805</v>
       </c>
       <c r="M12">
-        <v>1.016928829213405</v>
+        <v>1.055274124517541</v>
       </c>
       <c r="N12">
-        <v>1.024080649398126</v>
+        <v>1.042382852451812</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9927694849973091</v>
+        <v>1.03429443590435</v>
       </c>
       <c r="D13">
-        <v>1.014156357540193</v>
+        <v>1.03880856137173</v>
       </c>
       <c r="E13">
-        <v>1.00524104847313</v>
+        <v>1.042743637927966</v>
       </c>
       <c r="F13">
-        <v>1.002133473612743</v>
+        <v>1.051780151038428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043750880825977</v>
+        <v>1.03955906424989</v>
       </c>
       <c r="J13">
-        <v>1.022789283969874</v>
+        <v>1.040934749427974</v>
       </c>
       <c r="K13">
-        <v>1.028974137604322</v>
+        <v>1.042400508944189</v>
       </c>
       <c r="L13">
-        <v>1.020224823445257</v>
+        <v>1.046320992734441</v>
       </c>
       <c r="M13">
-        <v>1.017176016510745</v>
+        <v>1.055324451641373</v>
       </c>
       <c r="N13">
-        <v>1.024241762068682</v>
+        <v>1.042412996169046</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9936389130363088</v>
+        <v>1.034454043025887</v>
       </c>
       <c r="D14">
-        <v>1.014808790527535</v>
+        <v>1.038931286688703</v>
       </c>
       <c r="E14">
-        <v>1.00601790145593</v>
+        <v>1.04289762635919</v>
       </c>
       <c r="F14">
-        <v>1.003103119140415</v>
+        <v>1.051976846656772</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044069337304952</v>
+        <v>1.039604653137595</v>
       </c>
       <c r="J14">
-        <v>1.023314772164694</v>
+        <v>1.041033365218997</v>
       </c>
       <c r="K14">
-        <v>1.029473345896182</v>
+        <v>1.042491266163587</v>
       </c>
       <c r="L14">
-        <v>1.020844035532451</v>
+        <v>1.046443038832156</v>
       </c>
       <c r="M14">
-        <v>1.017983643872581</v>
+        <v>1.055489370818797</v>
       </c>
       <c r="N14">
-        <v>1.024767996517013</v>
+        <v>1.042511752005804</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9941726195862602</v>
+        <v>1.034552388216658</v>
       </c>
       <c r="D15">
-        <v>1.015209381196441</v>
+        <v>1.039006904060676</v>
       </c>
       <c r="E15">
-        <v>1.006494945182023</v>
+        <v>1.042992519913547</v>
       </c>
       <c r="F15">
-        <v>1.003698541802859</v>
+        <v>1.052098065790396</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044264582582226</v>
+        <v>1.039632710977783</v>
       </c>
       <c r="J15">
-        <v>1.023637280276792</v>
+        <v>1.041094116256109</v>
       </c>
       <c r="K15">
-        <v>1.029779692823905</v>
+        <v>1.042547170269243</v>
       </c>
       <c r="L15">
-        <v>1.021224154246432</v>
+        <v>1.046518236034893</v>
       </c>
       <c r="M15">
-        <v>1.018479502701723</v>
+        <v>1.055590997207727</v>
       </c>
       <c r="N15">
-        <v>1.025090962627622</v>
+        <v>1.042572589316356</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.997249452582226</v>
+        <v>1.035124890420586</v>
       </c>
       <c r="D16">
-        <v>1.017520086452785</v>
+        <v>1.03944706338415</v>
       </c>
       <c r="E16">
-        <v>1.009247591603801</v>
+        <v>1.043545088059252</v>
       </c>
       <c r="F16">
-        <v>1.00713415929871</v>
+        <v>1.05280404780395</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045386466575476</v>
+        <v>1.039795546377724</v>
       </c>
       <c r="J16">
-        <v>1.025495490326835</v>
+        <v>1.04144756938494</v>
       </c>
       <c r="K16">
-        <v>1.031544284450776</v>
+        <v>1.042872335670497</v>
       </c>
       <c r="L16">
-        <v>1.023415668198052</v>
+        <v>1.046955924476905</v>
       </c>
       <c r="M16">
-        <v>1.02133948515991</v>
+        <v>1.056182723669977</v>
       </c>
       <c r="N16">
-        <v>1.026951811549076</v>
+        <v>1.042926544389172</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9991540721382098</v>
+        <v>1.035484085213649</v>
       </c>
       <c r="D17">
-        <v>1.018951532256421</v>
+        <v>1.039723192293214</v>
       </c>
       <c r="E17">
-        <v>1.010953675658312</v>
+        <v>1.043891915936294</v>
       </c>
       <c r="F17">
-        <v>1.009263505077154</v>
+        <v>1.053247273656974</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046077637896813</v>
+        <v>1.039897271432983</v>
       </c>
       <c r="J17">
-        <v>1.026644796964324</v>
+        <v>1.041669153645271</v>
       </c>
       <c r="K17">
-        <v>1.032635236327636</v>
+        <v>1.043076108357918</v>
       </c>
       <c r="L17">
-        <v>1.024772334924779</v>
+        <v>1.047230481534237</v>
       </c>
       <c r="M17">
-        <v>1.023111037888788</v>
+        <v>1.05655408861393</v>
       </c>
       <c r="N17">
-        <v>1.028102750333817</v>
+        <v>1.043148443324569</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000256100649348</v>
+        <v>1.03569362579986</v>
       </c>
       <c r="D18">
-        <v>1.019780143229685</v>
+        <v>1.039884263545961</v>
       </c>
       <c r="E18">
-        <v>1.011941589217557</v>
+        <v>1.044094292485195</v>
       </c>
       <c r="F18">
-        <v>1.010496512513659</v>
+        <v>1.053505937265937</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04647635284883</v>
+        <v>1.039956455402248</v>
       </c>
       <c r="J18">
-        <v>1.027309436300412</v>
+        <v>1.041798353800495</v>
       </c>
       <c r="K18">
-        <v>1.03326596239231</v>
+        <v>1.043194895000587</v>
       </c>
       <c r="L18">
-        <v>1.025557330444843</v>
+        <v>1.047390628191759</v>
       </c>
       <c r="M18">
-        <v>1.02413648924492</v>
+        <v>1.056770767975768</v>
       </c>
       <c r="N18">
-        <v>1.028768333533997</v>
+        <v>1.043277826958833</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00063037650999</v>
+        <v>1.035765078509765</v>
       </c>
       <c r="D19">
-        <v>1.020061619623185</v>
+        <v>1.039939186329969</v>
       </c>
       <c r="E19">
-        <v>1.012277236559407</v>
+        <v>1.044163310812159</v>
       </c>
       <c r="F19">
-        <v>1.010915433556249</v>
+        <v>1.0535941581706</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046611560767058</v>
+        <v>1.039976610058944</v>
       </c>
       <c r="J19">
-        <v>1.027535102017521</v>
+        <v>1.041842399857569</v>
       </c>
       <c r="K19">
-        <v>1.033480084767199</v>
+        <v>1.043235386191124</v>
       </c>
       <c r="L19">
-        <v>1.025823936037789</v>
+        <v>1.047445234409972</v>
       </c>
       <c r="M19">
-        <v>1.024484827896335</v>
+        <v>1.056844661633535</v>
       </c>
       <c r="N19">
-        <v>1.02899431972231</v>
+        <v>1.04332193556636</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9989506509317386</v>
+        <v>1.035445544075053</v>
       </c>
       <c r="D20">
-        <v>1.018798609627469</v>
+        <v>1.039693565238821</v>
       </c>
       <c r="E20">
-        <v>1.010771379815199</v>
+        <v>1.043854696542122</v>
       </c>
       <c r="F20">
-        <v>1.009035983639341</v>
+        <v>1.053199705494205</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04600394236371</v>
+        <v>1.039886372864372</v>
       </c>
       <c r="J20">
-        <v>1.026522083240622</v>
+        <v>1.041645384524189</v>
       </c>
       <c r="K20">
-        <v>1.032518770483178</v>
+        <v>1.043054252765414</v>
       </c>
       <c r="L20">
-        <v>1.024627435332864</v>
+        <v>1.0472010239306</v>
       </c>
       <c r="M20">
-        <v>1.022921785474815</v>
+        <v>1.056514237582859</v>
       </c>
       <c r="N20">
-        <v>1.027979862342552</v>
+        <v>1.043124640448609</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9933833014488429</v>
+        <v>1.034407041460554</v>
       </c>
       <c r="D21">
-        <v>1.014616956804413</v>
+        <v>1.03889514667011</v>
       </c>
       <c r="E21">
-        <v>1.005789472346881</v>
+        <v>1.042852277227814</v>
       </c>
       <c r="F21">
-        <v>1.002818002610752</v>
+        <v>1.051918918767318</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043975761656716</v>
+        <v>1.039591234799079</v>
       </c>
       <c r="J21">
-        <v>1.023160292853227</v>
+        <v>1.041004327284787</v>
       </c>
       <c r="K21">
-        <v>1.029326598904034</v>
+        <v>1.042464543425614</v>
       </c>
       <c r="L21">
-        <v>1.020661985299778</v>
+        <v>1.046407099177452</v>
       </c>
       <c r="M21">
-        <v>1.017746183023142</v>
+        <v>1.055440803263723</v>
       </c>
       <c r="N21">
-        <v>1.024613297827205</v>
+        <v>1.042482672834397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9897972119772918</v>
+        <v>1.033754353964669</v>
       </c>
       <c r="D22">
-        <v>1.011927290201245</v>
+        <v>1.038393246689398</v>
       </c>
       <c r="E22">
-        <v>1.002587753518492</v>
+        <v>1.042222722977529</v>
       </c>
       <c r="F22">
-        <v>0.9988215213143825</v>
+        <v>1.051114879953418</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042658608190475</v>
+        <v>1.039404316825999</v>
       </c>
       <c r="J22">
-        <v>1.020991840517111</v>
+        <v>1.040600857870545</v>
       </c>
       <c r="K22">
-        <v>1.02726611115476</v>
+        <v>1.042093139837004</v>
       </c>
       <c r="L22">
-        <v>1.018108120223635</v>
+        <v>1.045907951653196</v>
       </c>
       <c r="M22">
-        <v>1.014416360303438</v>
+        <v>1.054766513768606</v>
       </c>
       <c r="N22">
-        <v>1.022441766040046</v>
+        <v>1.042078630447307</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9917066633712363</v>
+        <v>1.034100331037531</v>
       </c>
       <c r="D23">
-        <v>1.013359044212419</v>
+        <v>1.038659303740101</v>
       </c>
       <c r="E23">
-        <v>1.004291844815122</v>
+        <v>1.042556394312067</v>
       </c>
       <c r="F23">
-        <v>1.000948674589525</v>
+        <v>1.051540998149656</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0433609349415</v>
+        <v>1.039503533669289</v>
       </c>
       <c r="J23">
-        <v>1.022146726872622</v>
+        <v>1.040814783388884</v>
       </c>
       <c r="K23">
-        <v>1.028363628273193</v>
+        <v>1.042290087355002</v>
       </c>
       <c r="L23">
-        <v>1.019467903759039</v>
+        <v>1.046172556640711</v>
       </c>
       <c r="M23">
-        <v>1.016188985097805</v>
+        <v>1.055123908285162</v>
       </c>
       <c r="N23">
-        <v>1.023598292466649</v>
+        <v>1.042292859764421</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9990425956771799</v>
+        <v>1.035462959069047</v>
       </c>
       <c r="D24">
-        <v>1.018867728297467</v>
+        <v>1.039706952398835</v>
       </c>
       <c r="E24">
-        <v>1.010853773715061</v>
+        <v>1.043871514144185</v>
       </c>
       <c r="F24">
-        <v>1.009138818547028</v>
+        <v>1.053221199074642</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04603725588291</v>
+        <v>1.039891297923552</v>
       </c>
       <c r="J24">
-        <v>1.026577549970489</v>
+        <v>1.041656124909649</v>
       </c>
       <c r="K24">
-        <v>1.032571413684039</v>
+        <v>1.043064128584845</v>
       </c>
       <c r="L24">
-        <v>1.024692928730109</v>
+        <v>1.047214334547018</v>
       </c>
       <c r="M24">
-        <v>1.023007324750048</v>
+        <v>1.056532244336859</v>
       </c>
       <c r="N24">
-        <v>1.028035407841538</v>
+        <v>1.043135396086648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007208584452001</v>
+        <v>1.037045322127676</v>
       </c>
       <c r="D25">
-        <v>1.025013549090041</v>
+        <v>1.040923075710839</v>
       </c>
       <c r="E25">
-        <v>1.018187319740794</v>
+        <v>1.045400682744807</v>
       </c>
       <c r="F25">
-        <v>1.018292323339667</v>
+        <v>1.055176369071516</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048969916894268</v>
+        <v>1.04033536988456</v>
       </c>
       <c r="J25">
-        <v>1.031495762708822</v>
+        <v>1.042630640175763</v>
       </c>
       <c r="K25">
-        <v>1.037235586079786</v>
+        <v>1.043959591188064</v>
       </c>
       <c r="L25">
-        <v>1.03050971227432</v>
+        <v>1.048423342369834</v>
       </c>
       <c r="M25">
-        <v>1.030613159217517</v>
+        <v>1.058169223653046</v>
       </c>
       <c r="N25">
-        <v>1.032960605006087</v>
+        <v>1.044111295276219</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03830827859863</v>
+        <v>1.013467923752983</v>
       </c>
       <c r="D2">
-        <v>1.041893320539708</v>
+        <v>1.029733167850358</v>
       </c>
       <c r="E2">
-        <v>1.046622765366318</v>
+        <v>1.023830655118865</v>
       </c>
       <c r="F2">
-        <v>1.056740132583072</v>
+        <v>1.025338248282312</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040684779555896</v>
+        <v>1.051179017829788</v>
       </c>
       <c r="J2">
-        <v>1.043406421329438</v>
+        <v>1.035253140356551</v>
       </c>
       <c r="K2">
-        <v>1.044671547752643</v>
+        <v>1.040793248925237</v>
       </c>
       <c r="L2">
-        <v>1.04938768418819</v>
+        <v>1.034967681707946</v>
       </c>
       <c r="M2">
-        <v>1.059477015119916</v>
+        <v>1.036455516254433</v>
       </c>
       <c r="N2">
-        <v>1.044888178128115</v>
+        <v>1.036723318561065</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039225788613012</v>
+        <v>1.017877198024782</v>
       </c>
       <c r="D3">
-        <v>1.04259793952127</v>
+        <v>1.033061829889979</v>
       </c>
       <c r="E3">
-        <v>1.047511494830233</v>
+        <v>1.027818215734992</v>
       </c>
       <c r="F3">
-        <v>1.057878063177577</v>
+        <v>1.030318933012062</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040935700576638</v>
+        <v>1.052711934829075</v>
       </c>
       <c r="J3">
-        <v>1.043968830998331</v>
+        <v>1.037892098853247</v>
       </c>
       <c r="K3">
-        <v>1.045187165651309</v>
+        <v>1.043288457886792</v>
       </c>
       <c r="L3">
-        <v>1.050087893307484</v>
+        <v>1.038107112308786</v>
       </c>
       <c r="M3">
-        <v>1.060427819577611</v>
+        <v>1.040578035281156</v>
       </c>
       <c r="N3">
-        <v>1.045451386483247</v>
+        <v>1.039366024681506</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039819702537381</v>
+        <v>1.020671098521705</v>
       </c>
       <c r="D4">
-        <v>1.043053930912896</v>
+        <v>1.035172540810053</v>
       </c>
       <c r="E4">
-        <v>1.048087199874871</v>
+        <v>1.030350390771433</v>
       </c>
       <c r="F4">
-        <v>1.058615534116578</v>
+        <v>1.033482976370894</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041096773343455</v>
+        <v>1.053672243462072</v>
       </c>
       <c r="J4">
-        <v>1.044332338092738</v>
+        <v>1.039560418947514</v>
       </c>
       <c r="K4">
-        <v>1.045520186858627</v>
+        <v>1.044864217321576</v>
       </c>
       <c r="L4">
-        <v>1.050540976741385</v>
+        <v>1.04009580926027</v>
       </c>
       <c r="M4">
-        <v>1.061043620399547</v>
+        <v>1.043193412553541</v>
       </c>
       <c r="N4">
-        <v>1.045815409799423</v>
+        <v>1.041036713981666</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040069436627061</v>
+        <v>1.021831975953483</v>
       </c>
       <c r="D5">
-        <v>1.043245641828417</v>
+        <v>1.03604987103425</v>
       </c>
       <c r="E5">
-        <v>1.048329377910945</v>
+        <v>1.031403814690556</v>
       </c>
       <c r="F5">
-        <v>1.058925842360395</v>
+        <v>1.034799596519479</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041164178995864</v>
+        <v>1.054068575626416</v>
       </c>
       <c r="J5">
-        <v>1.044485057633046</v>
+        <v>1.040252663994802</v>
       </c>
       <c r="K5">
-        <v>1.045660040154958</v>
+        <v>1.045517640784072</v>
       </c>
       <c r="L5">
-        <v>1.050731452525985</v>
+        <v>1.040921959738604</v>
       </c>
       <c r="M5">
-        <v>1.061302637986782</v>
+        <v>1.044280867932199</v>
       </c>
       <c r="N5">
-        <v>1.045968346218996</v>
+        <v>1.041729942096323</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040111371143819</v>
+        <v>1.02202610415424</v>
       </c>
       <c r="D6">
-        <v>1.043277831610696</v>
+        <v>1.036196600479565</v>
       </c>
       <c r="E6">
-        <v>1.04837004953118</v>
+        <v>1.031580049393894</v>
       </c>
       <c r="F6">
-        <v>1.058977960611444</v>
+        <v>1.035019883590797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041175478546308</v>
+        <v>1.054134693783036</v>
       </c>
       <c r="J6">
-        <v>1.044510694096741</v>
+        <v>1.040368368335799</v>
       </c>
       <c r="K6">
-        <v>1.045683513387067</v>
+        <v>1.045626831635141</v>
       </c>
       <c r="L6">
-        <v>1.050763434196194</v>
+        <v>1.041060102941515</v>
       </c>
       <c r="M6">
-        <v>1.061346136069233</v>
+        <v>1.044462762290393</v>
       </c>
       <c r="N6">
-        <v>1.04599401908941</v>
+        <v>1.041845810750756</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03982303929059</v>
+        <v>1.020686663334062</v>
       </c>
       <c r="D7">
-        <v>1.043056492517389</v>
+        <v>1.035184302670551</v>
       </c>
       <c r="E7">
-        <v>1.048090435275095</v>
+        <v>1.030364509783584</v>
       </c>
       <c r="F7">
-        <v>1.058619679389074</v>
+        <v>1.033500621646386</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041097675237234</v>
+        <v>1.053677568042416</v>
       </c>
       <c r="J7">
-        <v>1.044334379128082</v>
+        <v>1.039569704217492</v>
       </c>
       <c r="K7">
-        <v>1.04552205617105</v>
+        <v>1.044872983521492</v>
       </c>
       <c r="L7">
-        <v>1.050543521891077</v>
+        <v>1.040106886788313</v>
       </c>
       <c r="M7">
-        <v>1.061047080876021</v>
+        <v>1.043207989963676</v>
       </c>
       <c r="N7">
-        <v>1.045817453733271</v>
+        <v>1.041046012437793</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038618308594031</v>
+        <v>1.014970620150877</v>
       </c>
       <c r="D8">
-        <v>1.042131437536494</v>
+        <v>1.030867237590948</v>
       </c>
       <c r="E8">
-        <v>1.046922983005476</v>
+        <v>1.025188464242752</v>
       </c>
       <c r="F8">
-        <v>1.057124462210958</v>
+        <v>1.027033995908159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040769846254991</v>
+        <v>1.051703727693411</v>
       </c>
       <c r="J8">
-        <v>1.043596574638731</v>
+        <v>1.0361532931474</v>
       </c>
       <c r="K8">
-        <v>1.044845930692502</v>
+        <v>1.041644715576445</v>
       </c>
       <c r="L8">
-        <v>1.04962432238232</v>
+        <v>1.03603771775219</v>
       </c>
       <c r="M8">
-        <v>1.059798226127876</v>
+        <v>1.037859814572184</v>
       </c>
       <c r="N8">
-        <v>1.045078601476918</v>
+        <v>1.037624749672114</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036497169163338</v>
+        <v>1.004421388048874</v>
       </c>
       <c r="D9">
-        <v>1.040501853621195</v>
+        <v>1.02291433678666</v>
       </c>
       <c r="E9">
-        <v>1.044870711566019</v>
+        <v>1.015680683867357</v>
       </c>
       <c r="F9">
-        <v>1.054498567896851</v>
+        <v>1.015163409961601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040182313909408</v>
+        <v>1.047974971704805</v>
       </c>
       <c r="J9">
-        <v>1.042293366854962</v>
+        <v>1.029818976011769</v>
       </c>
       <c r="K9">
-        <v>1.043649815371922</v>
+        <v>1.035646271114119</v>
       </c>
       <c r="L9">
-        <v>1.048004620912013</v>
+        <v>1.028524374557722</v>
       </c>
       <c r="M9">
-        <v>1.05760195874566</v>
+        <v>1.028015170287101</v>
       </c>
       <c r="N9">
-        <v>1.043773542988616</v>
+        <v>1.031281437079593</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035084301804099</v>
+        <v>0.9970329897526699</v>
       </c>
       <c r="D10">
-        <v>1.039415859531166</v>
+        <v>1.017357451829574</v>
       </c>
       <c r="E10">
-        <v>1.043505903708899</v>
+        <v>1.009053797007595</v>
       </c>
       <c r="F10">
-        <v>1.052753977631966</v>
+        <v>1.006892285361802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03978403011017</v>
+        <v>1.045307751126592</v>
       </c>
       <c r="J10">
-        <v>1.041422521997335</v>
+        <v>1.025364821915394</v>
       </c>
       <c r="K10">
-        <v>1.042849297872576</v>
+        <v>1.031420228127481</v>
       </c>
       <c r="L10">
-        <v>1.046924897197846</v>
+        <v>1.023261484107794</v>
       </c>
       <c r="M10">
-        <v>1.056140765137475</v>
+        <v>1.021138202633005</v>
       </c>
       <c r="N10">
-        <v>1.042901461431404</v>
+        <v>1.026820957573503</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034472815147954</v>
+        <v>0.9937409049075989</v>
       </c>
       <c r="D11">
-        <v>1.038945720665022</v>
+        <v>1.014885338630611</v>
       </c>
       <c r="E11">
-        <v>1.042915739017801</v>
+        <v>1.006109055266611</v>
       </c>
       <c r="F11">
-        <v>1.051999983709918</v>
+        <v>1.003216893400164</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03961001074408</v>
+        <v>1.0441066632191</v>
       </c>
       <c r="J11">
-        <v>1.041044962144885</v>
+        <v>1.023376407824955</v>
       </c>
       <c r="K11">
-        <v>1.042501938185608</v>
+        <v>1.029531894859155</v>
       </c>
       <c r="L11">
-        <v>1.046457392703919</v>
+        <v>1.020916676066773</v>
       </c>
       <c r="M11">
-        <v>1.055508768779807</v>
+        <v>1.01807839774425</v>
       </c>
       <c r="N11">
-        <v>1.042523365400657</v>
+        <v>1.024829719706981</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034245726707986</v>
+        <v>0.9925033440611655</v>
       </c>
       <c r="D12">
-        <v>1.038771106903581</v>
+        <v>1.013956677029925</v>
       </c>
       <c r="E12">
-        <v>1.042696647616227</v>
+        <v>1.005003312166035</v>
       </c>
       <c r="F12">
-        <v>1.051720131520344</v>
+        <v>1.001836733724958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039545138317939</v>
+        <v>1.043653301401256</v>
       </c>
       <c r="J12">
-        <v>1.04090464845757</v>
+        <v>1.022628399773329</v>
       </c>
       <c r="K12">
-        <v>1.042372804389153</v>
+        <v>1.028821286427349</v>
       </c>
       <c r="L12">
-        <v>1.046283744888805</v>
+        <v>1.020035280296129</v>
       </c>
       <c r="M12">
-        <v>1.055274124517541</v>
+        <v>1.016928829213402</v>
       </c>
       <c r="N12">
-        <v>1.042382852451812</v>
+        <v>1.024080649398124</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03429443590435</v>
+        <v>0.992769484997309</v>
       </c>
       <c r="D13">
-        <v>1.03880856137173</v>
+        <v>1.014156357540193</v>
       </c>
       <c r="E13">
-        <v>1.042743637927966</v>
+        <v>1.00524104847313</v>
       </c>
       <c r="F13">
-        <v>1.051780151038428</v>
+        <v>1.002133473612743</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03955906424989</v>
+        <v>1.043750880825977</v>
       </c>
       <c r="J13">
-        <v>1.040934749427974</v>
+        <v>1.022789283969874</v>
       </c>
       <c r="K13">
-        <v>1.042400508944189</v>
+        <v>1.028974137604322</v>
       </c>
       <c r="L13">
-        <v>1.046320992734441</v>
+        <v>1.020224823445256</v>
       </c>
       <c r="M13">
-        <v>1.055324451641373</v>
+        <v>1.017176016510746</v>
       </c>
       <c r="N13">
-        <v>1.042412996169046</v>
+        <v>1.024241762068681</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034454043025887</v>
+        <v>0.993638913036309</v>
       </c>
       <c r="D14">
-        <v>1.038931286688703</v>
+        <v>1.014808790527535</v>
       </c>
       <c r="E14">
-        <v>1.04289762635919</v>
+        <v>1.00601790145593</v>
       </c>
       <c r="F14">
-        <v>1.051976846656772</v>
+        <v>1.003103119140414</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039604653137595</v>
+        <v>1.044069337304952</v>
       </c>
       <c r="J14">
-        <v>1.041033365218997</v>
+        <v>1.023314772164694</v>
       </c>
       <c r="K14">
-        <v>1.042491266163587</v>
+        <v>1.029473345896182</v>
       </c>
       <c r="L14">
-        <v>1.046443038832156</v>
+        <v>1.020844035532451</v>
       </c>
       <c r="M14">
-        <v>1.055489370818797</v>
+        <v>1.017983643872581</v>
       </c>
       <c r="N14">
-        <v>1.042511752005804</v>
+        <v>1.024767996517013</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034552388216658</v>
+        <v>0.9941726195862591</v>
       </c>
       <c r="D15">
-        <v>1.039006904060676</v>
+        <v>1.01520938119644</v>
       </c>
       <c r="E15">
-        <v>1.042992519913547</v>
+        <v>1.006494945182022</v>
       </c>
       <c r="F15">
-        <v>1.052098065790396</v>
+        <v>1.003698541802857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039632710977783</v>
+        <v>1.044264582582226</v>
       </c>
       <c r="J15">
-        <v>1.041094116256109</v>
+        <v>1.023637280276791</v>
       </c>
       <c r="K15">
-        <v>1.042547170269243</v>
+        <v>1.029779692823904</v>
       </c>
       <c r="L15">
-        <v>1.046518236034893</v>
+        <v>1.021224154246431</v>
       </c>
       <c r="M15">
-        <v>1.055590997207727</v>
+        <v>1.018479502701722</v>
       </c>
       <c r="N15">
-        <v>1.042572589316356</v>
+        <v>1.025090962627621</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.035124890420586</v>
+        <v>0.9972494525822267</v>
       </c>
       <c r="D16">
-        <v>1.03944706338415</v>
+        <v>1.017520086452786</v>
       </c>
       <c r="E16">
-        <v>1.043545088059252</v>
+        <v>1.009247591603801</v>
       </c>
       <c r="F16">
-        <v>1.05280404780395</v>
+        <v>1.00713415929871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039795546377724</v>
+        <v>1.045386466575477</v>
       </c>
       <c r="J16">
-        <v>1.04144756938494</v>
+        <v>1.025495490326836</v>
       </c>
       <c r="K16">
-        <v>1.042872335670497</v>
+        <v>1.031544284450777</v>
       </c>
       <c r="L16">
-        <v>1.046955924476905</v>
+        <v>1.023415668198053</v>
       </c>
       <c r="M16">
-        <v>1.056182723669977</v>
+        <v>1.02133948515991</v>
       </c>
       <c r="N16">
-        <v>1.042926544389172</v>
+        <v>1.026951811549077</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035484085213649</v>
+        <v>0.9991540721382096</v>
       </c>
       <c r="D17">
-        <v>1.039723192293214</v>
+        <v>1.018951532256421</v>
       </c>
       <c r="E17">
-        <v>1.043891915936294</v>
+        <v>1.010953675658312</v>
       </c>
       <c r="F17">
-        <v>1.053247273656974</v>
+        <v>1.009263505077154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039897271432983</v>
+        <v>1.046077637896813</v>
       </c>
       <c r="J17">
-        <v>1.041669153645271</v>
+        <v>1.026644796964324</v>
       </c>
       <c r="K17">
-        <v>1.043076108357918</v>
+        <v>1.032635236327636</v>
       </c>
       <c r="L17">
-        <v>1.047230481534237</v>
+        <v>1.024772334924778</v>
       </c>
       <c r="M17">
-        <v>1.05655408861393</v>
+        <v>1.023111037888787</v>
       </c>
       <c r="N17">
-        <v>1.043148443324569</v>
+        <v>1.028102750333817</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03569362579986</v>
+        <v>1.000256100649348</v>
       </c>
       <c r="D18">
-        <v>1.039884263545961</v>
+        <v>1.019780143229686</v>
       </c>
       <c r="E18">
-        <v>1.044094292485195</v>
+        <v>1.011941589217557</v>
       </c>
       <c r="F18">
-        <v>1.053505937265937</v>
+        <v>1.01049651251366</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039956455402248</v>
+        <v>1.04647635284883</v>
       </c>
       <c r="J18">
-        <v>1.041798353800495</v>
+        <v>1.027309436300412</v>
       </c>
       <c r="K18">
-        <v>1.043194895000587</v>
+        <v>1.03326596239231</v>
       </c>
       <c r="L18">
-        <v>1.047390628191759</v>
+        <v>1.025557330444844</v>
       </c>
       <c r="M18">
-        <v>1.056770767975768</v>
+        <v>1.024136489244921</v>
       </c>
       <c r="N18">
-        <v>1.043277826958833</v>
+        <v>1.028768333533999</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035765078509765</v>
+        <v>1.00063037650999</v>
       </c>
       <c r="D19">
-        <v>1.039939186329969</v>
+        <v>1.020061619623185</v>
       </c>
       <c r="E19">
-        <v>1.044163310812159</v>
+        <v>1.012277236559406</v>
       </c>
       <c r="F19">
-        <v>1.0535941581706</v>
+        <v>1.010915433556249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039976610058944</v>
+        <v>1.046611560767058</v>
       </c>
       <c r="J19">
-        <v>1.041842399857569</v>
+        <v>1.027535102017521</v>
       </c>
       <c r="K19">
-        <v>1.043235386191124</v>
+        <v>1.033480084767199</v>
       </c>
       <c r="L19">
-        <v>1.047445234409972</v>
+        <v>1.025823936037789</v>
       </c>
       <c r="M19">
-        <v>1.056844661633535</v>
+        <v>1.024484827896334</v>
       </c>
       <c r="N19">
-        <v>1.04332193556636</v>
+        <v>1.02899431972231</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035445544075053</v>
+        <v>0.9989506509317377</v>
       </c>
       <c r="D20">
-        <v>1.039693565238821</v>
+        <v>1.018798609627468</v>
       </c>
       <c r="E20">
-        <v>1.043854696542122</v>
+        <v>1.010771379815198</v>
       </c>
       <c r="F20">
-        <v>1.053199705494205</v>
+        <v>1.009035983639339</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039886372864372</v>
+        <v>1.04600394236371</v>
       </c>
       <c r="J20">
-        <v>1.041645384524189</v>
+        <v>1.026522083240621</v>
       </c>
       <c r="K20">
-        <v>1.043054252765414</v>
+        <v>1.032518770483176</v>
       </c>
       <c r="L20">
-        <v>1.0472010239306</v>
+        <v>1.024627435332863</v>
       </c>
       <c r="M20">
-        <v>1.056514237582859</v>
+        <v>1.022921785474813</v>
       </c>
       <c r="N20">
-        <v>1.043124640448609</v>
+        <v>1.027979862342552</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034407041460554</v>
+        <v>0.9933833014488422</v>
       </c>
       <c r="D21">
-        <v>1.03889514667011</v>
+        <v>1.014616956804412</v>
       </c>
       <c r="E21">
-        <v>1.042852277227814</v>
+        <v>1.00578947234688</v>
       </c>
       <c r="F21">
-        <v>1.051918918767318</v>
+        <v>1.002818002610751</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039591234799079</v>
+        <v>1.043975761656716</v>
       </c>
       <c r="J21">
-        <v>1.041004327284787</v>
+        <v>1.023160292853227</v>
       </c>
       <c r="K21">
-        <v>1.042464543425614</v>
+        <v>1.029326598904033</v>
       </c>
       <c r="L21">
-        <v>1.046407099177452</v>
+        <v>1.020661985299777</v>
       </c>
       <c r="M21">
-        <v>1.055440803263723</v>
+        <v>1.017746183023142</v>
       </c>
       <c r="N21">
-        <v>1.042482672834397</v>
+        <v>1.024613297827204</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033754353964669</v>
+        <v>0.9897972119772909</v>
       </c>
       <c r="D22">
-        <v>1.038393246689398</v>
+        <v>1.011927290201244</v>
       </c>
       <c r="E22">
-        <v>1.042222722977529</v>
+        <v>1.002587753518491</v>
       </c>
       <c r="F22">
-        <v>1.051114879953418</v>
+        <v>0.9988215213143815</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039404316825999</v>
+        <v>1.042658608190475</v>
       </c>
       <c r="J22">
-        <v>1.040600857870545</v>
+        <v>1.02099184051711</v>
       </c>
       <c r="K22">
-        <v>1.042093139837004</v>
+        <v>1.02726611115476</v>
       </c>
       <c r="L22">
-        <v>1.045907951653196</v>
+        <v>1.018108120223634</v>
       </c>
       <c r="M22">
-        <v>1.054766513768606</v>
+        <v>1.014416360303437</v>
       </c>
       <c r="N22">
-        <v>1.042078630447307</v>
+        <v>1.022441766040046</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034100331037531</v>
+        <v>0.9917066633712366</v>
       </c>
       <c r="D23">
-        <v>1.038659303740101</v>
+        <v>1.013359044212419</v>
       </c>
       <c r="E23">
-        <v>1.042556394312067</v>
+        <v>1.004291844815122</v>
       </c>
       <c r="F23">
-        <v>1.051540998149656</v>
+        <v>1.000948674589525</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039503533669289</v>
+        <v>1.043360934941501</v>
       </c>
       <c r="J23">
-        <v>1.040814783388884</v>
+        <v>1.022146726872623</v>
       </c>
       <c r="K23">
-        <v>1.042290087355002</v>
+        <v>1.028363628273193</v>
       </c>
       <c r="L23">
-        <v>1.046172556640711</v>
+        <v>1.01946790375904</v>
       </c>
       <c r="M23">
-        <v>1.055123908285162</v>
+        <v>1.016188985097806</v>
       </c>
       <c r="N23">
-        <v>1.042292859764421</v>
+        <v>1.02359829246665</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035462959069047</v>
+        <v>0.9990425956771792</v>
       </c>
       <c r="D24">
-        <v>1.039706952398835</v>
+        <v>1.018867728297467</v>
       </c>
       <c r="E24">
-        <v>1.043871514144185</v>
+        <v>1.01085377371506</v>
       </c>
       <c r="F24">
-        <v>1.053221199074642</v>
+        <v>1.009138818547028</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039891297923552</v>
+        <v>1.046037255882909</v>
       </c>
       <c r="J24">
-        <v>1.041656124909649</v>
+        <v>1.026577549970489</v>
       </c>
       <c r="K24">
-        <v>1.043064128584845</v>
+        <v>1.032571413684038</v>
       </c>
       <c r="L24">
-        <v>1.047214334547018</v>
+        <v>1.024692928730108</v>
       </c>
       <c r="M24">
-        <v>1.056532244336859</v>
+        <v>1.023007324750048</v>
       </c>
       <c r="N24">
-        <v>1.043135396086648</v>
+        <v>1.028035407841538</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037045322127676</v>
+        <v>1.007208584452001</v>
       </c>
       <c r="D25">
-        <v>1.040923075710839</v>
+        <v>1.025013549090041</v>
       </c>
       <c r="E25">
-        <v>1.045400682744807</v>
+        <v>1.018187319740794</v>
       </c>
       <c r="F25">
-        <v>1.055176369071516</v>
+        <v>1.018292323339667</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04033536988456</v>
+        <v>1.048969916894268</v>
       </c>
       <c r="J25">
-        <v>1.042630640175763</v>
+        <v>1.031495762708822</v>
       </c>
       <c r="K25">
-        <v>1.043959591188064</v>
+        <v>1.037235586079786</v>
       </c>
       <c r="L25">
-        <v>1.048423342369834</v>
+        <v>1.03050971227432</v>
       </c>
       <c r="M25">
-        <v>1.058169223653046</v>
+        <v>1.030613159217516</v>
       </c>
       <c r="N25">
-        <v>1.044111295276219</v>
+        <v>1.032960605006087</v>
       </c>
     </row>
   </sheetData>
